--- a/eval/src/test/resources/RATE_CA.xlsx
+++ b/eval/src/test/resources/RATE_CA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\rainforest\product\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzheng/Documents/workspace/rainforest/eval/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8802B831-8788-4B04-B939-C66796C00E97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E91F26-524A-7345-99EF-0716CDAE46C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RATE_SPEC" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -562,10 +562,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
@@ -573,7 +573,7 @@
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,14 +666,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -691,16 +693,16 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -711,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -722,7 +724,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -733,7 +735,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -744,7 +746,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -755,7 +757,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -766,7 +768,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -777,7 +779,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -788,7 +790,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -799,7 +801,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -810,7 +812,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -821,7 +823,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -832,7 +834,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -843,7 +845,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -854,7 +856,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -865,7 +867,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -876,7 +878,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +889,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -898,7 +900,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -909,7 +911,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -920,7 +922,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -931,7 +933,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -942,7 +944,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -953,7 +955,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -964,7 +966,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
